--- a/p3d_ecs/python_prototype/Networking.xlsx
+++ b/p3d_ecs/python_prototype/Networking.xlsx
@@ -4,11 +4,11 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="90" windowWidth="21075" windowHeight="8250"/>
+    <workbookView xWindow="120" yWindow="90" windowWidth="21075" windowHeight="8250" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Main" sheetId="1" r:id="rId1"/>
+    <sheet name="Detail - Velocity" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="145621"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="114">
   <si>
     <t>Client A</t>
   </si>
@@ -341,12 +341,90 @@
       <t xml:space="preserve"> event: 3 }, snychronize: { 180: door: &lt;DOOR ENTITY&gt; }</t>
     </r>
   </si>
+  <si>
+    <t>Exact player movement details</t>
+  </si>
+  <si>
+    <t>Client</t>
+  </si>
+  <si>
+    <t>Time [ms]</t>
+  </si>
+  <si>
+    <t>F</t>
+  </si>
+  <si>
+    <t>Start movement</t>
+  </si>
+  <si>
+    <t>Stop movement</t>
+  </si>
+  <si>
+    <t>No client delta</t>
+  </si>
+  <si>
+    <t>recv pos = 1.5</t>
+  </si>
+  <si>
+    <t>recv pos = 6.0</t>
+  </si>
+  <si>
+    <t>recv pos = 10.5</t>
+  </si>
+  <si>
+    <t>recv pos = 13.5</t>
+  </si>
+  <si>
+    <t>sent ClientDelta { pos = 1.5, t = 30 }</t>
+  </si>
+  <si>
+    <t>sent ClientDelta { pos = 6.0, t = 60 }</t>
+  </si>
+  <si>
+    <t>sent ClientDelta { pos = 10.5, t = 90 }</t>
+  </si>
+  <si>
+    <t>sent Client Delta { pos = 13.5, t = 120 }</t>
+  </si>
+  <si>
+    <t>process pos = 1.5, last_update = Never -&gt; OK</t>
+  </si>
+  <si>
+    <t>process pos = 6.0, last_update = -30, dt = 0,2 -&gt; OK</t>
+  </si>
+  <si>
+    <t>process pos = 10.5, last_update= -30, dt = 0.2 -&gt; OK</t>
+  </si>
+  <si>
+    <t>process pos = 13.5, last_update= -30, dt = 0.2 -&gt; OK</t>
+  </si>
+  <si>
+    <t>Last</t>
+  </si>
+  <si>
+    <t>Curr</t>
+  </si>
+  <si>
+    <t>Result</t>
+  </si>
+  <si>
+    <t>Last T</t>
+  </si>
+  <si>
+    <t>Curr T</t>
+  </si>
+  <si>
+    <t>Speed</t>
+  </si>
+  <si>
+    <t>send clientA move from 0 to 1,5 time 180 to 210</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="26" x14ac:knownFonts="1">
+  <fonts count="31" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -507,6 +585,43 @@
       <color rgb="FF9C6500"/>
       <name val="Roboto"/>
     </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="6"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="9"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="11">
     <fill>
@@ -603,7 +718,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="8">
+  <cellStyleXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -612,8 +727,9 @@
     <xf numFmtId="0" fontId="6" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="6" applyFont="1"/>
@@ -668,11 +784,21 @@
     </xf>
     <xf numFmtId="0" fontId="25" fillId="4" borderId="0" xfId="3" applyFont="1"/>
     <xf numFmtId="0" fontId="17" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="8"/>
+    <xf numFmtId="2" fontId="27" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="3"/>
+    <xf numFmtId="1" fontId="30" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="2" fontId="28" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="2" fontId="29" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="8">
+  <cellStyles count="9">
     <cellStyle name="40% - Accent4" xfId="7" builtinId="43"/>
     <cellStyle name="Bad" xfId="2" builtinId="27"/>
     <cellStyle name="Calculation" xfId="5" builtinId="22"/>
+    <cellStyle name="Explanatory Text" xfId="8" builtinId="53"/>
     <cellStyle name="Good" xfId="1" builtinId="26"/>
     <cellStyle name="Input" xfId="4" builtinId="20"/>
     <cellStyle name="Neutral" xfId="3" builtinId="28"/>
@@ -3027,8 +3153,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C2:O99"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C25" workbookViewId="0">
-      <selection activeCell="N26" sqref="N26"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="H50" sqref="H50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4528,15 +4654,746 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="B3:Q33"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B41" sqref="B41"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="Q17" sqref="Q17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="4" customWidth="1"/>
+    <col min="2" max="2" width="9.5703125" customWidth="1"/>
+    <col min="3" max="3" width="9.140625" customWidth="1"/>
+    <col min="4" max="4" width="16" customWidth="1"/>
+    <col min="5" max="5" width="33.42578125" customWidth="1"/>
+    <col min="6" max="6" width="2.7109375" customWidth="1"/>
+    <col min="7" max="7" width="13.5703125" customWidth="1"/>
+    <col min="8" max="8" width="45.85546875" customWidth="1"/>
+    <col min="9" max="9" width="6.28515625" customWidth="1"/>
+    <col min="15" max="15" width="9.140625" style="41"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="6" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B6" s="35" t="s">
+        <v>90</v>
+      </c>
+      <c r="C6" t="s">
+        <v>91</v>
+      </c>
+      <c r="E6" t="s">
+        <v>89</v>
+      </c>
+      <c r="G6" t="s">
+        <v>1</v>
+      </c>
+      <c r="J6" t="s">
+        <v>107</v>
+      </c>
+      <c r="K6" t="s">
+        <v>110</v>
+      </c>
+      <c r="L6" t="s">
+        <v>108</v>
+      </c>
+      <c r="M6" t="s">
+        <v>111</v>
+      </c>
+      <c r="N6" s="39" t="s">
+        <v>109</v>
+      </c>
+      <c r="O6" s="41" t="s">
+        <v>112</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B7" s="35">
+        <v>0</v>
+      </c>
+      <c r="C7" s="36">
+        <v>0</v>
+      </c>
+      <c r="D7" s="36"/>
+      <c r="F7" s="36"/>
+      <c r="J7" s="34">
+        <v>0</v>
+      </c>
+      <c r="K7" s="38">
+        <v>0</v>
+      </c>
+      <c r="L7" s="34">
+        <v>0</v>
+      </c>
+      <c r="M7" s="38"/>
+      <c r="N7" s="40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B8" s="35">
+        <v>10</v>
+      </c>
+      <c r="C8" s="36">
+        <v>0</v>
+      </c>
+      <c r="D8" s="36"/>
+      <c r="F8" s="36"/>
+      <c r="J8" s="34">
+        <v>0</v>
+      </c>
+      <c r="K8" s="38"/>
+      <c r="L8" s="34">
+        <v>0</v>
+      </c>
+      <c r="M8" s="38"/>
+      <c r="N8" s="40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B9" s="35">
+        <v>20</v>
+      </c>
+      <c r="C9" s="36">
+        <v>0</v>
+      </c>
+      <c r="D9" s="36" t="s">
+        <v>92</v>
+      </c>
+      <c r="F9" s="36"/>
+      <c r="J9" s="34">
+        <v>0</v>
+      </c>
+      <c r="K9" s="38"/>
+      <c r="L9" s="34">
+        <v>0</v>
+      </c>
+      <c r="M9" s="38"/>
+      <c r="N9" s="40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B10" s="35">
+        <v>30</v>
+      </c>
+      <c r="C10" s="36">
+        <v>1.5</v>
+      </c>
+      <c r="D10" s="36"/>
+      <c r="E10" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="F10" s="36"/>
+      <c r="J10" s="34">
+        <v>0</v>
+      </c>
+      <c r="K10" s="38"/>
+      <c r="L10" s="34">
+        <v>0</v>
+      </c>
+      <c r="M10" s="38"/>
+      <c r="N10" s="40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B11" s="35">
+        <v>40</v>
+      </c>
+      <c r="C11" s="36">
+        <v>3</v>
+      </c>
+      <c r="D11" s="36"/>
+      <c r="F11" s="36"/>
+      <c r="J11" s="34">
+        <v>0</v>
+      </c>
+      <c r="K11" s="38"/>
+      <c r="L11" s="34">
+        <v>0</v>
+      </c>
+      <c r="M11" s="38"/>
+      <c r="N11" s="40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B12" s="35">
+        <v>50</v>
+      </c>
+      <c r="C12" s="36">
+        <v>4.5</v>
+      </c>
+      <c r="D12" s="36"/>
+      <c r="F12" s="36"/>
+      <c r="G12" t="s">
+        <v>95</v>
+      </c>
+      <c r="J12" s="34">
+        <v>0</v>
+      </c>
+      <c r="K12" s="38"/>
+      <c r="L12" s="34">
+        <v>0</v>
+      </c>
+      <c r="M12" s="38"/>
+      <c r="N12" s="40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B13" s="35">
+        <v>60</v>
+      </c>
+      <c r="C13" s="36">
+        <v>6</v>
+      </c>
+      <c r="D13" s="36"/>
+      <c r="E13" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="F13" s="36"/>
+      <c r="J13" s="34">
+        <v>0</v>
+      </c>
+      <c r="K13" s="38"/>
+      <c r="L13" s="34">
+        <v>0</v>
+      </c>
+      <c r="M13" s="38"/>
+      <c r="N13" s="40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B14" s="35">
+        <v>70</v>
+      </c>
+      <c r="C14" s="36">
+        <v>7.5</v>
+      </c>
+      <c r="D14" s="36"/>
+      <c r="F14" s="36"/>
+      <c r="G14" t="s">
+        <v>96</v>
+      </c>
+      <c r="J14" s="34">
+        <v>0</v>
+      </c>
+      <c r="K14" s="38"/>
+      <c r="L14" s="34">
+        <v>0</v>
+      </c>
+      <c r="M14" s="38"/>
+      <c r="N14" s="40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B15" s="35">
+        <v>80</v>
+      </c>
+      <c r="C15" s="36">
+        <v>9</v>
+      </c>
+      <c r="D15" s="36"/>
+      <c r="F15" s="36"/>
+      <c r="J15" s="34">
+        <v>0</v>
+      </c>
+      <c r="K15" s="38"/>
+      <c r="L15" s="34">
+        <v>0</v>
+      </c>
+      <c r="M15" s="38"/>
+      <c r="N15" s="40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B16" s="35">
+        <v>90</v>
+      </c>
+      <c r="C16" s="36">
+        <v>10.5</v>
+      </c>
+      <c r="D16" s="36"/>
+      <c r="E16" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="F16" s="36"/>
+      <c r="J16" s="34">
+        <v>0</v>
+      </c>
+      <c r="K16" s="38"/>
+      <c r="L16" s="34">
+        <v>0</v>
+      </c>
+      <c r="M16" s="38"/>
+      <c r="N16" s="40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B17" s="35">
+        <v>100</v>
+      </c>
+      <c r="C17" s="36">
+        <v>12</v>
+      </c>
+      <c r="D17" s="36"/>
+      <c r="F17" s="36"/>
+      <c r="J17" s="34">
+        <v>0</v>
+      </c>
+      <c r="K17" s="38"/>
+      <c r="L17" s="34">
+        <v>0</v>
+      </c>
+      <c r="M17" s="38"/>
+      <c r="N17" s="40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B18" s="35">
+        <v>110</v>
+      </c>
+      <c r="C18" s="36">
+        <v>13.5</v>
+      </c>
+      <c r="D18" s="36" t="s">
+        <v>93</v>
+      </c>
+      <c r="F18" s="36"/>
+      <c r="G18" t="s">
+        <v>97</v>
+      </c>
+      <c r="J18" s="34">
+        <v>0</v>
+      </c>
+      <c r="K18" s="38"/>
+      <c r="L18" s="34">
+        <v>0</v>
+      </c>
+      <c r="M18" s="38"/>
+      <c r="N18" s="40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B19" s="35">
+        <v>120</v>
+      </c>
+      <c r="C19" s="36">
+        <v>13.5</v>
+      </c>
+      <c r="D19" s="36"/>
+      <c r="E19" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="F19" s="36"/>
+      <c r="J19" s="34">
+        <v>0</v>
+      </c>
+      <c r="K19" s="38"/>
+      <c r="L19" s="34">
+        <v>0</v>
+      </c>
+      <c r="M19" s="38"/>
+      <c r="N19" s="40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B20" s="35">
+        <v>130</v>
+      </c>
+      <c r="C20" s="36">
+        <v>13.5</v>
+      </c>
+      <c r="D20" s="36"/>
+      <c r="F20" s="36"/>
+      <c r="H20" t="s">
+        <v>103</v>
+      </c>
+      <c r="J20" s="34">
+        <v>0</v>
+      </c>
+      <c r="K20" s="38">
+        <v>130</v>
+      </c>
+      <c r="L20" s="34">
+        <v>1.5</v>
+      </c>
+      <c r="M20" s="38">
+        <v>160</v>
+      </c>
+      <c r="N20" s="40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B21" s="35">
+        <v>140</v>
+      </c>
+      <c r="C21" s="36">
+        <v>13.5</v>
+      </c>
+      <c r="D21" s="36"/>
+      <c r="F21" s="36"/>
+      <c r="G21" t="s">
+        <v>98</v>
+      </c>
+      <c r="H21" s="37" t="s">
+        <v>113</v>
+      </c>
+      <c r="J21" s="34">
+        <v>0</v>
+      </c>
+      <c r="K21" s="38"/>
+      <c r="L21" s="34">
+        <v>1.5</v>
+      </c>
+      <c r="M21" s="38"/>
+      <c r="N21" s="40">
+        <v>0.5</v>
+      </c>
+      <c r="O21" s="42">
+        <f>N21-N20</f>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="22" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B22" s="35">
+        <v>150</v>
+      </c>
+      <c r="C22" s="36">
+        <v>13.5</v>
+      </c>
+      <c r="D22" s="36"/>
+      <c r="E22" t="s">
+        <v>94</v>
+      </c>
+      <c r="F22" s="36"/>
+      <c r="J22" s="34">
+        <v>0</v>
+      </c>
+      <c r="K22" s="38"/>
+      <c r="L22" s="34">
+        <v>1.5</v>
+      </c>
+      <c r="M22" s="38"/>
+      <c r="N22" s="40">
+        <v>1</v>
+      </c>
+      <c r="O22" s="42">
+        <f t="shared" ref="O22:O32" si="0">N22-N21</f>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="23" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B23" s="35">
+        <v>160</v>
+      </c>
+      <c r="C23" s="36">
+        <v>13.5</v>
+      </c>
+      <c r="D23" s="36"/>
+      <c r="F23" s="36"/>
+      <c r="H23" t="s">
+        <v>104</v>
+      </c>
+      <c r="J23" s="34">
+        <v>1.5</v>
+      </c>
+      <c r="K23" s="38">
+        <v>160</v>
+      </c>
+      <c r="L23" s="34">
+        <v>6</v>
+      </c>
+      <c r="M23" s="38">
+        <v>190</v>
+      </c>
+      <c r="N23" s="40">
+        <v>1.5</v>
+      </c>
+      <c r="O23" s="42">
+        <f t="shared" si="0"/>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="24" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B24" s="35">
+        <v>170</v>
+      </c>
+      <c r="C24" s="36">
+        <v>13.5</v>
+      </c>
+      <c r="D24" s="36"/>
+      <c r="F24" s="36"/>
+      <c r="H24" s="37" t="s">
+        <v>113</v>
+      </c>
+      <c r="J24" s="34">
+        <v>1.5</v>
+      </c>
+      <c r="K24" s="38"/>
+      <c r="L24" s="34">
+        <v>6</v>
+      </c>
+      <c r="M24" s="38"/>
+      <c r="N24" s="40">
+        <v>3</v>
+      </c>
+      <c r="O24" s="42">
+        <f t="shared" si="0"/>
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="25" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B25" s="35">
+        <v>180</v>
+      </c>
+      <c r="C25" s="36">
+        <v>13.5</v>
+      </c>
+      <c r="D25" s="36"/>
+      <c r="E25" t="s">
+        <v>94</v>
+      </c>
+      <c r="F25" s="36"/>
+      <c r="J25" s="34">
+        <v>1.5</v>
+      </c>
+      <c r="K25" s="38"/>
+      <c r="L25" s="34">
+        <v>6</v>
+      </c>
+      <c r="M25" s="38"/>
+      <c r="N25" s="40">
+        <v>4.5</v>
+      </c>
+      <c r="O25" s="42">
+        <f t="shared" si="0"/>
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="26" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B26" s="35">
+        <v>190</v>
+      </c>
+      <c r="C26" s="36">
+        <v>13.5</v>
+      </c>
+      <c r="D26" s="36"/>
+      <c r="F26" s="36"/>
+      <c r="H26" t="s">
+        <v>105</v>
+      </c>
+      <c r="J26" s="34">
+        <v>6</v>
+      </c>
+      <c r="K26" s="38">
+        <v>190</v>
+      </c>
+      <c r="L26" s="34">
+        <v>10.5</v>
+      </c>
+      <c r="M26" s="38">
+        <v>220</v>
+      </c>
+      <c r="N26" s="40">
+        <v>6</v>
+      </c>
+      <c r="O26" s="42">
+        <f t="shared" si="0"/>
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="27" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B27" s="35">
+        <v>200</v>
+      </c>
+      <c r="C27" s="36">
+        <v>13.5</v>
+      </c>
+      <c r="D27" s="36"/>
+      <c r="F27" s="36"/>
+      <c r="H27" s="37"/>
+      <c r="J27" s="34">
+        <v>6</v>
+      </c>
+      <c r="K27" s="38"/>
+      <c r="L27" s="34">
+        <v>10.5</v>
+      </c>
+      <c r="M27" s="38"/>
+      <c r="N27" s="40">
+        <v>7.5</v>
+      </c>
+      <c r="O27" s="42">
+        <f t="shared" si="0"/>
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="28" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B28" s="35">
+        <v>210</v>
+      </c>
+      <c r="C28" s="36">
+        <v>13.5</v>
+      </c>
+      <c r="D28" s="36"/>
+      <c r="E28" t="s">
+        <v>94</v>
+      </c>
+      <c r="F28" s="36"/>
+      <c r="J28" s="34">
+        <v>6</v>
+      </c>
+      <c r="K28" s="38"/>
+      <c r="L28" s="34">
+        <v>10.5</v>
+      </c>
+      <c r="M28" s="38"/>
+      <c r="N28" s="40">
+        <v>9</v>
+      </c>
+      <c r="O28" s="42">
+        <f t="shared" si="0"/>
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="29" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B29" s="35">
+        <v>220</v>
+      </c>
+      <c r="C29" s="36">
+        <v>13.5</v>
+      </c>
+      <c r="D29" s="36"/>
+      <c r="F29" s="36"/>
+      <c r="H29" t="s">
+        <v>106</v>
+      </c>
+      <c r="J29" s="34">
+        <v>10.5</v>
+      </c>
+      <c r="K29" s="38">
+        <v>220</v>
+      </c>
+      <c r="L29" s="34">
+        <v>13.5</v>
+      </c>
+      <c r="M29" s="38">
+        <v>250</v>
+      </c>
+      <c r="N29" s="40">
+        <v>10.5</v>
+      </c>
+      <c r="O29" s="42">
+        <f t="shared" si="0"/>
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="30" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B30" s="35">
+        <v>230</v>
+      </c>
+      <c r="C30" s="36">
+        <v>13.5</v>
+      </c>
+      <c r="D30" s="36"/>
+      <c r="F30" s="36"/>
+      <c r="H30" s="37"/>
+      <c r="J30" s="34">
+        <v>10.5</v>
+      </c>
+      <c r="K30" s="38"/>
+      <c r="L30" s="34">
+        <v>13.5</v>
+      </c>
+      <c r="M30" s="38"/>
+      <c r="N30" s="40">
+        <v>12</v>
+      </c>
+      <c r="O30" s="42">
+        <f t="shared" si="0"/>
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="31" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B31" s="35">
+        <v>240</v>
+      </c>
+      <c r="C31" s="36">
+        <v>13.5</v>
+      </c>
+      <c r="D31" s="36"/>
+      <c r="E31" t="s">
+        <v>94</v>
+      </c>
+      <c r="F31" s="36"/>
+      <c r="J31" s="34">
+        <v>10.5</v>
+      </c>
+      <c r="K31" s="38"/>
+      <c r="L31" s="34">
+        <v>13.5</v>
+      </c>
+      <c r="M31" s="38"/>
+      <c r="N31" s="40">
+        <v>13.5</v>
+      </c>
+      <c r="O31" s="42">
+        <f t="shared" si="0"/>
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="32" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B32" s="35">
+        <v>250</v>
+      </c>
+      <c r="C32" s="36">
+        <v>13.5</v>
+      </c>
+      <c r="D32" s="36"/>
+      <c r="F32" s="36"/>
+      <c r="J32" s="34">
+        <v>10.5</v>
+      </c>
+      <c r="K32" s="38"/>
+      <c r="L32" s="34">
+        <v>13.5</v>
+      </c>
+      <c r="M32" s="38"/>
+      <c r="N32" s="40">
+        <v>13.5</v>
+      </c>
+      <c r="O32" s="42">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B33" s="35"/>
+      <c r="C33" s="34"/>
+      <c r="D33" s="34"/>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/p3d_ecs/python_prototype/Networking.xlsx
+++ b/p3d_ecs/python_prototype/Networking.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="90" windowWidth="21075" windowHeight="8250" activeTab="1"/>
+    <workbookView xWindow="120" yWindow="90" windowWidth="21075" windowHeight="8250" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="128">
   <si>
     <t>Client A</t>
   </si>
@@ -419,12 +419,54 @@
   <si>
     <t>send clientA move from 0 to 1,5 time 180 to 210</t>
   </si>
+  <si>
+    <t>Synchronization problem</t>
+  </si>
+  <si>
+    <t>Simulation Time in ms (synchronized)</t>
+  </si>
+  <si>
+    <t>Client Action</t>
+  </si>
+  <si>
+    <t>Server Action</t>
+  </si>
+  <si>
+    <t>Start Move</t>
+  </si>
+  <si>
+    <t>Process {id: start_move}</t>
+  </si>
+  <si>
+    <t>Sent: {id: start_move, time: 20}</t>
+  </si>
+  <si>
+    <t>Recieved packet</t>
+  </si>
+  <si>
+    <t>Queue Event to process at 100ms</t>
+  </si>
+  <si>
+    <t>Stop Move</t>
+  </si>
+  <si>
+    <t>Queue Event to process at 180ms</t>
+  </si>
+  <si>
+    <t>Sent: {id: stop_move, time: 100}</t>
+  </si>
+  <si>
+    <t>Where the client thinks he is</t>
+  </si>
+  <si>
+    <t>Where Server thinks the client is</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="31" x14ac:knownFonts="1">
+  <fonts count="32" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -622,6 +664,12 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="Roboto"/>
+    </font>
   </fonts>
   <fills count="11">
     <fill>
@@ -729,7 +777,7 @@
     <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="6" applyFont="1"/>
@@ -793,6 +841,13 @@
     <xf numFmtId="2" fontId="28" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="2" fontId="29" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="9">
     <cellStyle name="40% - Accent4" xfId="7" builtinId="43"/>
@@ -4656,7 +4711,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:Q33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+    <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="Q17" sqref="Q17"/>
     </sheetView>
   </sheetViews>
@@ -5399,12 +5454,674 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A2:N33"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="K19" sqref="K19"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="9.140625" style="30"/>
+    <col min="2" max="2" width="16.7109375" style="30" customWidth="1"/>
+    <col min="3" max="3" width="2.42578125" style="30" customWidth="1"/>
+    <col min="4" max="4" width="16.42578125" style="30" customWidth="1"/>
+    <col min="5" max="5" width="9.140625" style="30"/>
+    <col min="6" max="6" width="12.42578125" style="30" customWidth="1"/>
+    <col min="7" max="7" width="9.140625" style="30"/>
+    <col min="8" max="8" width="28.140625" style="30" customWidth="1"/>
+    <col min="9" max="9" width="9.140625" style="30"/>
+    <col min="10" max="10" width="16.5703125" style="30" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="30" customWidth="1"/>
+    <col min="12" max="12" width="14.7109375" style="30" customWidth="1"/>
+    <col min="13" max="16384" width="9.140625" style="30"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:14" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="B2" s="7" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" s="43" customFormat="1" ht="75" x14ac:dyDescent="0.25">
+      <c r="B5" s="43" t="s">
+        <v>115</v>
+      </c>
+      <c r="D5" s="43" t="s">
+        <v>126</v>
+      </c>
+      <c r="F5" s="43" t="s">
+        <v>116</v>
+      </c>
+      <c r="K5" s="43" t="s">
+        <v>117</v>
+      </c>
+      <c r="L5" s="43" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A6" s="29"/>
+      <c r="B6" s="29"/>
+      <c r="C6" s="29"/>
+      <c r="D6" s="29"/>
+      <c r="E6" s="29"/>
+      <c r="F6" s="29"/>
+      <c r="G6" s="29"/>
+      <c r="H6" s="29"/>
+      <c r="I6" s="29"/>
+      <c r="J6" s="29"/>
+      <c r="K6" s="29"/>
+      <c r="L6" s="29"/>
+      <c r="M6" s="29"/>
+      <c r="N6" s="29"/>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A7" s="29"/>
+      <c r="B7" s="29">
+        <v>0</v>
+      </c>
+      <c r="C7" s="29"/>
+      <c r="D7" s="35">
+        <v>0</v>
+      </c>
+      <c r="E7" s="29"/>
+      <c r="F7" s="29"/>
+      <c r="G7" s="29"/>
+      <c r="H7" s="29"/>
+      <c r="I7" s="29"/>
+      <c r="J7" s="29"/>
+      <c r="K7" s="29"/>
+      <c r="L7" s="35">
+        <v>0</v>
+      </c>
+      <c r="M7" s="29"/>
+      <c r="N7" s="29"/>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A8" s="29"/>
+      <c r="B8" s="29">
+        <v>10</v>
+      </c>
+      <c r="C8" s="29"/>
+      <c r="D8" s="35">
+        <v>0</v>
+      </c>
+      <c r="E8" s="29"/>
+      <c r="F8" s="29"/>
+      <c r="G8" s="29"/>
+      <c r="H8" s="29"/>
+      <c r="I8" s="29"/>
+      <c r="J8" s="29"/>
+      <c r="K8" s="29"/>
+      <c r="L8" s="35">
+        <v>0</v>
+      </c>
+      <c r="M8" s="29"/>
+      <c r="N8" s="29"/>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A9" s="29"/>
+      <c r="B9" s="29">
+        <v>20</v>
+      </c>
+      <c r="C9" s="29"/>
+      <c r="D9" s="35">
+        <v>0</v>
+      </c>
+      <c r="E9" s="29"/>
+      <c r="F9" s="29" t="s">
+        <v>118</v>
+      </c>
+      <c r="G9" s="29"/>
+      <c r="H9" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="I9" s="29"/>
+      <c r="J9" s="29"/>
+      <c r="K9" s="29"/>
+      <c r="L9" s="35">
+        <v>0</v>
+      </c>
+      <c r="M9" s="29"/>
+      <c r="N9" s="29"/>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A10" s="29"/>
+      <c r="B10" s="29">
+        <v>30</v>
+      </c>
+      <c r="C10" s="29"/>
+      <c r="D10" s="45">
+        <v>1</v>
+      </c>
+      <c r="E10" s="29"/>
+      <c r="F10" s="29"/>
+      <c r="G10" s="29"/>
+      <c r="H10" s="29"/>
+      <c r="I10" s="29"/>
+      <c r="J10" s="29"/>
+      <c r="K10" s="29"/>
+      <c r="L10" s="35">
+        <v>0</v>
+      </c>
+      <c r="M10" s="29"/>
+      <c r="N10" s="29"/>
+    </row>
+    <row r="11" spans="1:14" ht="24.75" x14ac:dyDescent="0.25">
+      <c r="A11" s="29"/>
+      <c r="B11" s="29">
+        <v>40</v>
+      </c>
+      <c r="C11" s="29"/>
+      <c r="D11" s="45">
+        <v>2</v>
+      </c>
+      <c r="E11" s="29"/>
+      <c r="F11" s="29"/>
+      <c r="G11" s="29"/>
+      <c r="H11" s="29"/>
+      <c r="I11" s="29"/>
+      <c r="J11" s="37" t="s">
+        <v>121</v>
+      </c>
+      <c r="K11" s="44" t="s">
+        <v>122</v>
+      </c>
+      <c r="L11" s="35">
+        <v>0</v>
+      </c>
+      <c r="M11" s="29"/>
+      <c r="N11" s="29"/>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A12" s="29"/>
+      <c r="B12" s="29">
+        <v>50</v>
+      </c>
+      <c r="C12" s="29"/>
+      <c r="D12" s="45">
+        <v>3</v>
+      </c>
+      <c r="E12" s="29"/>
+      <c r="F12" s="29"/>
+      <c r="G12" s="29"/>
+      <c r="H12" s="29"/>
+      <c r="I12" s="29"/>
+      <c r="J12" s="29"/>
+      <c r="K12" s="29"/>
+      <c r="L12" s="35">
+        <v>0</v>
+      </c>
+      <c r="M12" s="29"/>
+      <c r="N12" s="29"/>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A13" s="29"/>
+      <c r="B13" s="29">
+        <v>60</v>
+      </c>
+      <c r="C13" s="29"/>
+      <c r="D13" s="45">
+        <v>4</v>
+      </c>
+      <c r="E13" s="29"/>
+      <c r="F13" s="29"/>
+      <c r="G13" s="29"/>
+      <c r="H13" s="29"/>
+      <c r="I13" s="29"/>
+      <c r="J13" s="29"/>
+      <c r="K13" s="29"/>
+      <c r="L13" s="35">
+        <v>0</v>
+      </c>
+      <c r="M13" s="29"/>
+      <c r="N13" s="29"/>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A14" s="29"/>
+      <c r="B14" s="29">
+        <v>70</v>
+      </c>
+      <c r="C14" s="29"/>
+      <c r="D14" s="45">
+        <v>5</v>
+      </c>
+      <c r="E14" s="29"/>
+      <c r="F14" s="29"/>
+      <c r="G14" s="29"/>
+      <c r="H14" s="29"/>
+      <c r="I14" s="29"/>
+      <c r="J14" s="29"/>
+      <c r="K14" s="29"/>
+      <c r="L14" s="35">
+        <v>0</v>
+      </c>
+      <c r="M14" s="29"/>
+      <c r="N14" s="29"/>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A15" s="29"/>
+      <c r="B15" s="29">
+        <v>80</v>
+      </c>
+      <c r="C15" s="29"/>
+      <c r="D15" s="45">
+        <v>6</v>
+      </c>
+      <c r="E15" s="29"/>
+      <c r="F15" s="29"/>
+      <c r="G15" s="29"/>
+      <c r="H15" s="29"/>
+      <c r="I15" s="29"/>
+      <c r="J15" s="29"/>
+      <c r="K15" s="29" t="s">
+        <v>119</v>
+      </c>
+      <c r="L15" s="35">
+        <v>0</v>
+      </c>
+      <c r="M15" s="29"/>
+      <c r="N15" s="29"/>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A16" s="29"/>
+      <c r="B16" s="29">
+        <v>90</v>
+      </c>
+      <c r="C16" s="29"/>
+      <c r="D16" s="45">
+        <v>7</v>
+      </c>
+      <c r="E16" s="29"/>
+      <c r="F16" s="29"/>
+      <c r="G16" s="29"/>
+      <c r="H16" s="29"/>
+      <c r="I16" s="29"/>
+      <c r="J16" s="29"/>
+      <c r="K16" s="29"/>
+      <c r="L16" s="45">
+        <v>1</v>
+      </c>
+      <c r="M16" s="29"/>
+      <c r="N16" s="29"/>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A17" s="29"/>
+      <c r="B17" s="29">
+        <v>100</v>
+      </c>
+      <c r="C17" s="29"/>
+      <c r="D17" s="45">
+        <v>8</v>
+      </c>
+      <c r="E17" s="29"/>
+      <c r="F17" s="29" t="s">
+        <v>123</v>
+      </c>
+      <c r="G17" s="29"/>
+      <c r="H17" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="I17" s="29"/>
+      <c r="J17" s="29"/>
+      <c r="K17" s="29"/>
+      <c r="L17" s="45">
+        <v>2</v>
+      </c>
+      <c r="M17" s="29"/>
+      <c r="N17" s="29"/>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A18" s="29"/>
+      <c r="B18" s="29">
+        <v>110</v>
+      </c>
+      <c r="C18" s="29"/>
+      <c r="D18" s="35">
+        <v>8</v>
+      </c>
+      <c r="E18" s="29"/>
+      <c r="F18" s="29"/>
+      <c r="G18" s="29"/>
+      <c r="H18" s="29"/>
+      <c r="I18" s="29"/>
+      <c r="J18" s="29"/>
+      <c r="K18" s="29"/>
+      <c r="L18" s="45">
+        <v>3</v>
+      </c>
+      <c r="M18" s="29"/>
+      <c r="N18" s="29"/>
+    </row>
+    <row r="19" spans="1:14" ht="24.75" x14ac:dyDescent="0.25">
+      <c r="A19" s="29"/>
+      <c r="B19" s="29">
+        <v>120</v>
+      </c>
+      <c r="C19" s="29"/>
+      <c r="D19" s="35">
+        <v>8</v>
+      </c>
+      <c r="E19" s="29"/>
+      <c r="F19" s="29"/>
+      <c r="G19" s="29"/>
+      <c r="H19" s="29"/>
+      <c r="I19" s="29"/>
+      <c r="J19" s="37" t="s">
+        <v>121</v>
+      </c>
+      <c r="K19" s="44" t="s">
+        <v>124</v>
+      </c>
+      <c r="L19" s="45">
+        <v>4</v>
+      </c>
+      <c r="M19" s="29"/>
+      <c r="N19" s="29"/>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A20" s="29"/>
+      <c r="B20" s="29">
+        <v>130</v>
+      </c>
+      <c r="C20" s="29"/>
+      <c r="D20" s="35">
+        <v>8</v>
+      </c>
+      <c r="E20" s="29"/>
+      <c r="F20" s="29"/>
+      <c r="G20" s="29"/>
+      <c r="H20" s="29"/>
+      <c r="I20" s="29"/>
+      <c r="J20" s="29"/>
+      <c r="K20" s="29"/>
+      <c r="L20" s="45">
+        <v>5</v>
+      </c>
+      <c r="M20" s="29"/>
+      <c r="N20" s="29"/>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A21" s="29"/>
+      <c r="B21" s="29">
+        <v>140</v>
+      </c>
+      <c r="C21" s="29"/>
+      <c r="D21" s="35">
+        <v>8</v>
+      </c>
+      <c r="E21" s="29"/>
+      <c r="F21" s="29"/>
+      <c r="G21" s="29"/>
+      <c r="H21" s="29"/>
+      <c r="I21" s="29"/>
+      <c r="J21" s="29"/>
+      <c r="L21" s="45">
+        <v>6</v>
+      </c>
+      <c r="M21" s="29"/>
+      <c r="N21" s="29"/>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A22" s="29"/>
+      <c r="B22" s="29">
+        <v>150</v>
+      </c>
+      <c r="C22" s="29"/>
+      <c r="D22" s="35">
+        <v>8</v>
+      </c>
+      <c r="E22" s="29"/>
+      <c r="F22" s="29"/>
+      <c r="G22" s="29"/>
+      <c r="H22" s="29"/>
+      <c r="I22" s="29"/>
+      <c r="J22" s="29"/>
+      <c r="K22" s="29"/>
+      <c r="L22" s="45">
+        <v>7</v>
+      </c>
+      <c r="M22" s="29"/>
+      <c r="N22" s="29"/>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A23" s="29"/>
+      <c r="B23" s="29">
+        <v>160</v>
+      </c>
+      <c r="C23" s="29"/>
+      <c r="D23" s="35">
+        <v>8</v>
+      </c>
+      <c r="E23" s="29"/>
+      <c r="F23" s="29"/>
+      <c r="G23" s="29"/>
+      <c r="H23" s="29"/>
+      <c r="I23" s="29"/>
+      <c r="J23" s="29"/>
+      <c r="K23" s="29"/>
+      <c r="L23" s="45">
+        <v>8</v>
+      </c>
+      <c r="M23" s="29"/>
+      <c r="N23" s="29"/>
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A24" s="29"/>
+      <c r="B24" s="29">
+        <v>170</v>
+      </c>
+      <c r="C24" s="29"/>
+      <c r="D24" s="35">
+        <v>8</v>
+      </c>
+      <c r="E24" s="29"/>
+      <c r="F24" s="29"/>
+      <c r="G24" s="29"/>
+      <c r="H24" s="29"/>
+      <c r="I24" s="29"/>
+      <c r="J24" s="29"/>
+      <c r="K24" s="29"/>
+      <c r="L24" s="35">
+        <v>8</v>
+      </c>
+      <c r="M24" s="29"/>
+      <c r="N24" s="29"/>
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A25" s="29"/>
+      <c r="B25" s="29">
+        <v>180</v>
+      </c>
+      <c r="C25" s="29"/>
+      <c r="D25" s="35">
+        <v>8</v>
+      </c>
+      <c r="E25" s="29"/>
+      <c r="F25" s="29"/>
+      <c r="G25" s="29"/>
+      <c r="H25" s="29"/>
+      <c r="I25" s="29"/>
+      <c r="J25" s="29"/>
+      <c r="K25" s="29"/>
+      <c r="L25" s="35">
+        <v>8</v>
+      </c>
+      <c r="M25" s="29"/>
+      <c r="N25" s="29"/>
+    </row>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A26" s="29"/>
+      <c r="B26" s="29">
+        <v>190</v>
+      </c>
+      <c r="C26" s="29"/>
+      <c r="D26" s="35">
+        <v>8</v>
+      </c>
+      <c r="E26" s="29"/>
+      <c r="F26" s="29"/>
+      <c r="G26" s="29"/>
+      <c r="H26" s="29"/>
+      <c r="I26" s="29"/>
+      <c r="J26" s="29"/>
+      <c r="K26" s="29"/>
+      <c r="L26" s="35">
+        <v>8</v>
+      </c>
+      <c r="M26" s="29"/>
+      <c r="N26" s="29"/>
+    </row>
+    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A27" s="29"/>
+      <c r="B27" s="29">
+        <v>200</v>
+      </c>
+      <c r="C27" s="29"/>
+      <c r="D27" s="35">
+        <v>8</v>
+      </c>
+      <c r="E27" s="29"/>
+      <c r="F27" s="29"/>
+      <c r="G27" s="29"/>
+      <c r="H27" s="29"/>
+      <c r="I27" s="29"/>
+      <c r="J27" s="29"/>
+      <c r="K27" s="29"/>
+      <c r="L27" s="35">
+        <v>8</v>
+      </c>
+      <c r="M27" s="29"/>
+      <c r="N27" s="29"/>
+    </row>
+    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A28" s="29"/>
+      <c r="B28" s="29">
+        <v>210</v>
+      </c>
+      <c r="C28" s="29"/>
+      <c r="D28" s="35">
+        <v>8</v>
+      </c>
+      <c r="E28" s="29"/>
+      <c r="F28" s="29"/>
+      <c r="G28" s="29"/>
+      <c r="H28" s="29"/>
+      <c r="I28" s="29"/>
+      <c r="J28" s="29"/>
+      <c r="K28" s="29"/>
+      <c r="L28" s="35">
+        <v>8</v>
+      </c>
+      <c r="M28" s="29"/>
+      <c r="N28" s="29"/>
+    </row>
+    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A29" s="29"/>
+      <c r="B29" s="29">
+        <v>220</v>
+      </c>
+      <c r="C29" s="29"/>
+      <c r="D29" s="35">
+        <v>8</v>
+      </c>
+      <c r="E29" s="29"/>
+      <c r="F29" s="29"/>
+      <c r="G29" s="29"/>
+      <c r="H29" s="29"/>
+      <c r="I29" s="29"/>
+      <c r="J29" s="29"/>
+      <c r="K29" s="29"/>
+      <c r="L29" s="35">
+        <v>8</v>
+      </c>
+      <c r="M29" s="29"/>
+      <c r="N29" s="29"/>
+    </row>
+    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A30" s="29"/>
+      <c r="B30" s="29">
+        <v>230</v>
+      </c>
+      <c r="C30" s="29"/>
+      <c r="D30" s="35">
+        <v>8</v>
+      </c>
+      <c r="E30" s="29"/>
+      <c r="F30" s="29"/>
+      <c r="G30" s="29"/>
+      <c r="H30" s="29"/>
+      <c r="I30" s="29"/>
+      <c r="J30" s="29"/>
+      <c r="K30" s="29"/>
+      <c r="L30" s="35">
+        <v>8</v>
+      </c>
+      <c r="M30" s="29"/>
+      <c r="N30" s="29"/>
+    </row>
+    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A31" s="29"/>
+      <c r="B31" s="29">
+        <v>240</v>
+      </c>
+      <c r="C31" s="29"/>
+      <c r="D31" s="35">
+        <v>8</v>
+      </c>
+      <c r="E31" s="29"/>
+      <c r="F31" s="29"/>
+      <c r="G31" s="29"/>
+      <c r="H31" s="29"/>
+      <c r="I31" s="29"/>
+      <c r="J31" s="29"/>
+      <c r="K31" s="29"/>
+      <c r="L31" s="35">
+        <v>8</v>
+      </c>
+      <c r="M31" s="29"/>
+      <c r="N31" s="29"/>
+    </row>
+    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A32" s="29"/>
+      <c r="B32" s="29">
+        <v>250</v>
+      </c>
+      <c r="C32" s="29"/>
+      <c r="D32" s="35">
+        <v>8</v>
+      </c>
+      <c r="E32" s="29"/>
+      <c r="F32" s="29"/>
+      <c r="G32" s="29"/>
+      <c r="H32" s="29"/>
+      <c r="I32" s="29"/>
+      <c r="J32" s="29"/>
+      <c r="K32" s="29"/>
+      <c r="L32" s="35">
+        <v>8</v>
+      </c>
+      <c r="M32" s="29"/>
+      <c r="N32" s="29"/>
+    </row>
+    <row r="33" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A33" s="29"/>
+      <c r="B33" s="29"/>
+      <c r="C33" s="29"/>
+      <c r="D33" s="29"/>
+      <c r="E33" s="29"/>
+      <c r="F33" s="29"/>
+      <c r="G33" s="29"/>
+      <c r="H33" s="29"/>
+      <c r="I33" s="29"/>
+      <c r="J33" s="29"/>
+      <c r="K33" s="29"/>
+      <c r="L33" s="29"/>
+      <c r="M33" s="29"/>
+      <c r="N33" s="29"/>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>